--- a/backend/web/example/tracking.xlsx
+++ b/backend/web/example/tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website\podv3\backend\web\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Contact code</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>D968124</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +497,11 @@
     <col min="3" max="3" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +517,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -530,8 +537,11 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -547,62 +557,73 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
